--- a/module6/tailieu/[C0721G2]_DetailDesign_KhaiPN.xlsx
+++ b/module6/tailieu/[C0721G2]_DetailDesign_KhaiPN.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai'pc\Desktop\hoc\C0721G2-Phan-Ng-c-Kh-i\module6\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D9CC3-906E-4062-B712-A5BEBD8DB832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841D36A-4964-4510-8D13-9F69027CF0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use_Case" sheetId="1" r:id="rId1"/>
     <sheet name="Class_Diagram" sheetId="5" r:id="rId2"/>
     <sheet name="Class_Diagram_demo" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Sequence_Diagram_demo" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Pseudo_Code_demo" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Sequence_Diagram" sheetId="6" r:id="rId4"/>
+    <sheet name="Sequence_Diagram_demo" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Pseudo_Code" sheetId="7" r:id="rId6"/>
+    <sheet name="Pseudo_Code_demo" sheetId="4" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t xml:space="preserve">6.3.1.4 Màn hình sửa thông tin khách hàng </t>
   </si>
@@ -149,6 +151,33 @@
   </si>
   <si>
     <t>5.6.1Màn hình xem danh sách bất động sản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RealEstateRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           List&lt;&lt;RealEstate&gt;&gt; getAllRealEstates()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Select SQL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select id,address,approval,area,description, kind_of_news, price, title, customer, direction, real_estate_type, status </t>
+  </si>
+  <si>
+    <t>from real_estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         RealEstateController</t>
+  </si>
+  <si>
+    <t>Inject RealEstateService</t>
+  </si>
+  <si>
+    <t>getAllRealEstate()</t>
+  </si>
+  <si>
+    <t>redirect to page /home</t>
   </si>
 </sst>
 </file>
@@ -372,23 +401,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA96A52-A7B8-43E3-800D-991366476B1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E358E248-613C-4AEE-9CAF-FC1C3C5D1192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="485775"/>
-          <a:ext cx="6010275" cy="3943350"/>
+          <a:off x="1457325" y="752475"/>
+          <a:ext cx="6153150" cy="6467475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,16 +593,82 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF44CD9-E6AA-4991-B46B-A412A8D4110C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1133475"/>
+          <a:ext cx="8963025" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:colOff>449235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:colOff>448875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -592,8 +687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1944360" y="425520"/>
-          <a:ext cx="7372080" cy="4884120"/>
+          <a:off x="1992285" y="1262490"/>
+          <a:ext cx="6943365" cy="4770060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,13 +704,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>275760</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>92880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>351720</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -950,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,18 +1087,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC481C7F-66A7-46B3-ABAE-CE52B6F782B5}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="6" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1119,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,11 +1154,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3051168-AF0B-4D69-8270-3C7B1527E14C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +1198,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1092,12 +1228,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C20809-996A-41C9-8339-902EFAFF3A13}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/module6/tailieu/[C0721G2]_DetailDesign_KhaiPN.xlsx
+++ b/module6/tailieu/[C0721G2]_DetailDesign_KhaiPN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai'pc\Desktop\hoc\C0721G2-Phan-Ng-c-Kh-i\module6\tailieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaip\Desktop\hoc\khai\C0721G2-Phan-Ng-c-Kh-i\module6\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841D36A-4964-4510-8D13-9F69027CF0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD44D95F-892A-45A7-9BF9-2CCF3806B26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use_Case" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t xml:space="preserve">6.3.1.4 Màn hình sửa thông tin khách hàng </t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>redirect to page /home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RealEstateService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Inject RealEstateReponsitoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return realEstateReponsitory.getAllRealEstate()</t>
   </si>
 </sst>
 </file>
@@ -335,23 +344,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629E2301-17E3-4064-8B92-756BB41BC83C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A0FC2E-9894-4360-8745-DE4EBF35DF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,8 +383,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1685925" y="933450"/>
-          <a:ext cx="6305550" cy="6305550"/>
+          <a:off x="771525" y="762000"/>
+          <a:ext cx="5248275" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,23 +410,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E358E248-613C-4AEE-9CAF-FC1C3C5D1192}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AED329-473B-45D6-BB8A-48B581CDFB8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -440,8 +449,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1457325" y="752475"/>
-          <a:ext cx="6153150" cy="6467475"/>
+          <a:off x="609600" y="352425"/>
+          <a:ext cx="6162675" cy="6753225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,21 +604,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF44CD9-E6AA-4991-B46B-A412A8D4110C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E122E67A-6A1D-4E0F-9482-75F05EA978F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,8 +641,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="1133475"/>
-          <a:ext cx="8963025" cy="5753100"/>
+          <a:off x="609600" y="733425"/>
+          <a:ext cx="9153525" cy="6486525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,7 +1055,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC481C7F-66A7-46B3-ABAE-CE52B6F782B5}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1167,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C20809-996A-41C9-8339-902EFAFF3A13}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1367,47 +1376,43 @@
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1417,7 +1422,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1426,6 +1431,56 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
